--- a/code/BlueHr/BlueHrWeb/Template/缺勤记录导入文件模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/缺勤记录导入文件模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>工号</t>
   </si>
@@ -30,13 +30,19 @@
     <t>缺勤原因</t>
   </si>
   <si>
-    <t>缺勤小时</t>
-  </si>
-  <si>
     <t>日期</t>
   </si>
   <si>
     <t>姓名</t>
+  </si>
+  <si>
+    <t>缺勤时长(小时)</t>
+  </si>
+  <si>
+    <t>结束时间(小时)</t>
+  </si>
+  <si>
+    <t>开始时间(小时)</t>
   </si>
 </sst>
 </file>
@@ -47,13 +53,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -387,7 +393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -395,35 +401,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/code/BlueHr/BlueHrWeb/Template/缺勤记录导入文件模板.xlsx
+++ b/code/BlueHr/BlueHrWeb/Template/缺勤记录导入文件模板.xlsx
@@ -53,13 +53,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -85,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -393,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -404,40 +405,42 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
